--- a/docs/Esquema Relacional.xlsx
+++ b/docs/Esquema Relacional.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dave\Google Drive\Developer\Universidad\3 SISTEMAS TRANSACCIONALES\Iteracion\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dnarv\Downloads\Iteracion\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530"/>
   </bookViews>
   <sheets>
     <sheet name="Esquema" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="324">
   <si>
     <t>FESTIVALES</t>
   </si>
@@ -505,6 +505,498 @@
   </si>
   <si>
     <t>Lo define el usuario, la fecha de llegada debe suceder antes de la fecha de salida</t>
+  </si>
+  <si>
+    <t>Espectaculos</t>
+  </si>
+  <si>
+    <t>Los espectaculos presentados en Festivandes por las Compañias de Teatro</t>
+  </si>
+  <si>
+    <t>COSTO_ REALIZACION</t>
+  </si>
+  <si>
+    <t>NUMBER</t>
+  </si>
+  <si>
+    <t>FLOAT</t>
+  </si>
+  <si>
+    <t>VARCHAR( 1024 )</t>
+  </si>
+  <si>
+    <t>La identificación del Espectaculo</t>
+  </si>
+  <si>
+    <t>El nombre del espectaculo</t>
+  </si>
+  <si>
+    <t>La duración del espectaculo</t>
+  </si>
+  <si>
+    <t>El idioma en el que se llevará a cabo el espectaculo</t>
+  </si>
+  <si>
+    <t>El costo de realizar el espectaculo</t>
+  </si>
+  <si>
+    <t>La descripción del espectaculo</t>
+  </si>
+  <si>
+    <t>El id del festival al que pertenece el espectaculo</t>
+  </si>
+  <si>
+    <t>El id de la clasificación de público del espectaculo</t>
+  </si>
+  <si>
+    <t>Definido por el sistema</t>
+  </si>
+  <si>
+    <t>Definido por el usuario</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, no puede ser vacío</t>
+  </si>
+  <si>
+    <t>Lo define el usuario, debe ser un número positivo</t>
+  </si>
+  <si>
+    <t>Lo define el usuario, el festival debe estar registrado en el sistema</t>
+  </si>
+  <si>
+    <t>Lo define el usuario, la clasificación debe estar registrada en el sistema</t>
+  </si>
+  <si>
+    <t>La fecha en la que se llevará a cabo la función</t>
+  </si>
+  <si>
+    <t>Las diferentes funciones de un espectaculo</t>
+  </si>
+  <si>
+    <t>FECHA, ID_LUGAR</t>
+  </si>
+  <si>
+    <t>El id del lugar en donde se realizará la función</t>
+  </si>
+  <si>
+    <t>El id del espectaculo de la función</t>
+  </si>
+  <si>
+    <t>Verifica si se realiza la función, no se realiza o se cancela</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe estar en el rango de las fechas del festival</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe estar registrado en el sistema</t>
+  </si>
+  <si>
+    <t>Lo define el usuario, debe ser 0, 1 o 2; no se realiza, se realiza o se cancela respectivamente</t>
+  </si>
+  <si>
+    <t>Lugares</t>
+  </si>
+  <si>
+    <t>Funciónes</t>
+  </si>
+  <si>
+    <t>El id del lugar</t>
+  </si>
+  <si>
+    <t>El nombre del lugar</t>
+  </si>
+  <si>
+    <t>El inicio de la disponibilidad del lugar</t>
+  </si>
+  <si>
+    <t>El fin de la disponibilidad del lugar</t>
+  </si>
+  <si>
+    <t>Verifica si es un lugar abierto o cerrado</t>
+  </si>
+  <si>
+    <t>El tipo del lugar</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, la fecha de inicio debe ser menor a la fecha de fin</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, la fecha de fin debe ser mayor a la fecha de inicio</t>
+  </si>
+  <si>
+    <t>Lo define el usuario, debe ser 0 o 1</t>
+  </si>
+  <si>
+    <t>Localidades</t>
+  </si>
+  <si>
+    <t>El nombre de la localidad</t>
+  </si>
+  <si>
+    <t>El id de la localidad</t>
+  </si>
+  <si>
+    <t>El número de la silla en la fila donde esta la silla</t>
+  </si>
+  <si>
+    <t>El número de la fila en la localidad donde esta la silla</t>
+  </si>
+  <si>
+    <t>El id del lugar donde esta la silla</t>
+  </si>
+  <si>
+    <t>El id de la localidad del lugar donde esta la silla</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, el lugar debe estar registrado en el sistema</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, la localidad debe estar registrada en el sistema</t>
+  </si>
+  <si>
+    <t>Sillas</t>
+  </si>
+  <si>
+    <t>Las sillas de un lugar</t>
+  </si>
+  <si>
+    <t>ID_LUGAR, ID_LOCALIDAD, NUMERO_FILA, NUMERO_SILLA</t>
+  </si>
+  <si>
+    <t>Las diferentes localidades que puede tener un lugar</t>
+  </si>
+  <si>
+    <t>Los diferentes lugares en los que se puede realizar una función de un espectaculo</t>
+  </si>
+  <si>
+    <t>Boletas</t>
+  </si>
+  <si>
+    <t>Las boletas compradas para las diferentes funciones</t>
+  </si>
+  <si>
+    <t>El número de la boleta</t>
+  </si>
+  <si>
+    <t>El número de la silla que corresponde a la boleta</t>
+  </si>
+  <si>
+    <t>El número de la fila a la que corresponde la boleta</t>
+  </si>
+  <si>
+    <t>El id de la localidad que corresponde a la boleta</t>
+  </si>
+  <si>
+    <t>El id del lugar que corresponde la boleta</t>
+  </si>
+  <si>
+    <t>La fecha de realización del espectaculo, al que se compró la boleta</t>
+  </si>
+  <si>
+    <t>El id del usuario que compró la boleta</t>
+  </si>
+  <si>
+    <t>El tipo del Id del usuario que compró la boleta</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe existir la silla en la fila de la localidad del lugar</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe existir la fila en la localidad del lugar</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe existir la localidad del lugar y estar habilitada por la función</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe existir la función en el lugar asociado a la fecha</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe existri la función en la fecha dada asociado al lugar</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe ser un usuario registrado o no registrado</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe coincidir con el id del usuario</t>
+  </si>
+  <si>
+    <t>Accesibilidades</t>
+  </si>
+  <si>
+    <t>Las diferentes accesibilidades ofrecidas por los lugares</t>
+  </si>
+  <si>
+    <t>El id de la accesibilidad</t>
+  </si>
+  <si>
+    <t>El nombre de la accesibilidad</t>
+  </si>
+  <si>
+    <t>Usuarios</t>
+  </si>
+  <si>
+    <t>Los diferentes usuarios de Festivandes</t>
+  </si>
+  <si>
+    <t>IDENTIFICACION, TIPO_IDENTIFICACION</t>
+  </si>
+  <si>
+    <t>La identificación del usuario</t>
+  </si>
+  <si>
+    <t>El tipo de identificación del usuario (i.e: CC, CE, ID, etc)</t>
+  </si>
+  <si>
+    <t>Email del usuario</t>
+  </si>
+  <si>
+    <t>Password del usuario</t>
+  </si>
+  <si>
+    <t>Nombre del usuario</t>
+  </si>
+  <si>
+    <t>Rol que desempeña el usuario en Festivandes</t>
+  </si>
+  <si>
+    <t>El id del festival al que hace parte el usuario</t>
+  </si>
+  <si>
+    <t>Definido por le usuario</t>
+  </si>
+  <si>
+    <t>Definido por le usuario, No puede ser vacío</t>
+  </si>
+  <si>
+    <t>Definido por le usuario, No puede ser vacío. Debe ser uno de los aceptados por el sistema</t>
+  </si>
+  <si>
+    <t>Definido por le usuario, el festival debe existir en el sitema</t>
+  </si>
+  <si>
+    <t>Usuarios Registrados</t>
+  </si>
+  <si>
+    <t>Los usuarios registrados de Festivandes (Espectadores)</t>
+  </si>
+  <si>
+    <t>ID_USUARIO, ID_TIPO</t>
+  </si>
+  <si>
+    <t>La identificación del usuario registrado</t>
+  </si>
+  <si>
+    <t>Edad del usuario</t>
+  </si>
+  <si>
+    <t>Definido por le usuario, No puede ser vacío. Debe existir en la tabla de Usuarios</t>
+  </si>
+  <si>
+    <t>Definido por le usuario, No puede ser vacío, Debe existri en la tabla de Usuarios</t>
+  </si>
+  <si>
+    <t>Clasificaciones</t>
+  </si>
+  <si>
+    <t>Las diferentes clasificaciones de un espectaculo</t>
+  </si>
+  <si>
+    <t>El id de la clasificación</t>
+  </si>
+  <si>
+    <t>El nombre de la clasificación</t>
+  </si>
+  <si>
+    <t>Generos</t>
+  </si>
+  <si>
+    <t>Los diferentes generos que puede tomar un espectaculo</t>
+  </si>
+  <si>
+    <t>El id del genero</t>
+  </si>
+  <si>
+    <t>El nombre del genero</t>
+  </si>
+  <si>
+    <t>Requerimientos Técnicos</t>
+  </si>
+  <si>
+    <t>Los diferentes requerimientos técnicos que puede ofrecer un lugar y solicitar un espectaculo</t>
+  </si>
+  <si>
+    <t>El id del requerimiento</t>
+  </si>
+  <si>
+    <t>El nombre del requerimiento</t>
+  </si>
+  <si>
+    <t>El id del festival asociado al abono</t>
+  </si>
+  <si>
+    <t>El id del usuario que compra el Abono</t>
+  </si>
+  <si>
+    <t>Abonos</t>
+  </si>
+  <si>
+    <t>Los abonos comprados por los usuarios</t>
+  </si>
+  <si>
+    <t>El tipo del Id del usuario que realiza la compra del abono</t>
+  </si>
+  <si>
+    <t>El descuento aplicado al abono</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, el id del festival debe existir en el sistema</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, el usuario debe ser un usuario registrado del sistema</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, el descuento es un número entre 0 y 1</t>
+  </si>
+  <si>
+    <t>ID_FESTIVAL, ID_USUARIO, TIPO_ID</t>
+  </si>
+  <si>
+    <t>Lugar Localidad</t>
+  </si>
+  <si>
+    <t>La asociación entre un lugar y las localidades que ofrece</t>
+  </si>
+  <si>
+    <t>El id del lugar que ofrece la localidad</t>
+  </si>
+  <si>
+    <t>El id de la localidad ofrecida</t>
+  </si>
+  <si>
+    <t>Verifica si la localidad ofrecida es numerada o no</t>
+  </si>
+  <si>
+    <t>Establece la capacidad de la localidad ofrecida por el lugar</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, el lugar debe existir en el sistema</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, la localidad debe existri en el sistema</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe ser 0 o 1</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe ser un número positivo</t>
+  </si>
+  <si>
+    <t>COSTO_LOCALIDAD</t>
+  </si>
+  <si>
+    <t>COSTO</t>
+  </si>
+  <si>
+    <t>PK, FK_CL_F_cod_FECHA</t>
+  </si>
+  <si>
+    <t>PK, FK_CL_LL_cod_ID_LOCALIDAD</t>
+  </si>
+  <si>
+    <t>PK, FK_CL_F_cod_ID_LUGAR, FK_CL_LL_cod_ID_LUGAR</t>
+  </si>
+  <si>
+    <t>La fecha de la función</t>
+  </si>
+  <si>
+    <t>El id del lugar donde se lleva a cabo la función</t>
+  </si>
+  <si>
+    <t>El id de la localidad que será habilitada</t>
+  </si>
+  <si>
+    <t>El costo asociado a la localidad de la función</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, en conjunto con el id del lugar debe ser una función registrada en el sistema</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, en conjunto con la fecha debe ser una función registrada en el sistema</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe ser una localidad ofrecida por el lugar donde se realiza la función</t>
+  </si>
+  <si>
+    <t>ABONO_FUNCION</t>
+  </si>
+  <si>
+    <t>FK_AF_CL_cod_ID_LOCALIDAD</t>
+  </si>
+  <si>
+    <t>PK, FK_AF_CL_cod_ID_LUGAR</t>
+  </si>
+  <si>
+    <t>PK, FK_AF_F_cod_ID</t>
+  </si>
+  <si>
+    <t>PK, FK_AF_UR_cod_ID_USUARIO</t>
+  </si>
+  <si>
+    <t>PK, FK_AF_UR_cod_ID_TIPO</t>
+  </si>
+  <si>
+    <t>PK, FK_AF_CL_cod_FECHA</t>
+  </si>
+  <si>
+    <t>Abono Función</t>
+  </si>
+  <si>
+    <t>Costo Localidad</t>
+  </si>
+  <si>
+    <t>La asociación entre una función y las localidades que ofrece</t>
+  </si>
+  <si>
+    <t>FECHA, ID_LUGAR, ID_LOCALIDAD</t>
+  </si>
+  <si>
+    <t>ID_LUGAR, ID_LOCALIDAD</t>
+  </si>
+  <si>
+    <t>ID_FESTIVAL, ID_USUARIO, TIPO_ID, FECHA, ID_LUGAR</t>
+  </si>
+  <si>
+    <t>El id del festival donde se comprará el abono</t>
+  </si>
+  <si>
+    <t>El id del usuario que compra el abono</t>
+  </si>
+  <si>
+    <t>El tipo del id del usuario que compra el abono</t>
+  </si>
+  <si>
+    <t>La fecha de la función que hace parte de la compra del abono</t>
+  </si>
+  <si>
+    <t>El lugar de la función que hace parte de la compra del abono</t>
+  </si>
+  <si>
+    <t>La localidad de la función que hace parte de la compra del abono</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, el usuario debe estar registrado en el sistema y haber realizado la compra de un abono</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, el festival debe estar registrado en el sistema y ser parte de la compra de un abono</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, en conjunto con la id del lugar debe ser una función registrada en el sistema que ofrezca la localidad especificada</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, en conjunto con la la fecha debe ser una función registrada en el sistema que ofrezca la localidad especificada</t>
+  </si>
+  <si>
+    <t>Definido por el usuario, debe ser una localidad ofrecida por la función</t>
   </si>
 </sst>
 </file>
@@ -551,12 +1043,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -576,6 +1062,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -766,56 +1258,27 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -857,11 +1320,1163 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="112">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1202,10 +2817,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
-      <selection activeCell="C71" sqref="C71"/>
+    <sheetView tabSelected="1" zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1215,821 +2830,893 @@
     <col min="3" max="3" width="22.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.28515625" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="17.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
     </row>
     <row r="6" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="4" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="22"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="22"/>
+      <c r="H9" s="22"/>
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="C10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="F10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="5" t="s">
+      <c r="G10" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="5" t="s">
+      <c r="H10" s="4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="4" t="s">
+      <c r="F11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="G11" s="4" t="s">
+      <c r="G11" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2"/>
-      <c r="C13" s="2"/>
-      <c r="D13" s="2"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="D14" s="5" t="s">
+      <c r="D14" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" s="22" t="s">
         <v>29</v>
       </c>
-      <c r="B17" s="2"/>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="5" t="s">
+      <c r="E18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="F18" s="5" t="s">
+      <c r="F18" s="4" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="4" t="s">
+      <c r="F19" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="2"/>
+      <c r="B21" s="22"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22" s="5" t="s">
+      <c r="A22" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="4" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+      <c r="A27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C27" s="4" t="s">
+      <c r="C27" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="3" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="22"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="22"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="22"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="5" t="s">
+      <c r="A30" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E30" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="G30" s="5" t="s">
+      <c r="G30" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="H30" s="5" t="s">
+      <c r="H30" s="4" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>69</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="3" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="2"/>
+      <c r="B33" s="22"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
     </row>
     <row r="38" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A38" s="5" t="s">
+      <c r="A38" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="4" t="s">
         <v>47</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="E38" s="5" t="s">
+      <c r="E38" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G38" s="5" t="s">
+      <c r="G38" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="150" x14ac:dyDescent="0.25">
-      <c r="A39" s="4" t="s">
+    <row r="39" spans="1:7" ht="66.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E39" s="4" t="s">
+      <c r="E39" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="6" t="s">
+      <c r="F39" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="3" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" s="22" t="s">
         <v>75</v>
       </c>
-      <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="22"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="5" t="s">
+      <c r="A42" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="4" t="s">
+      <c r="A43" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C43" s="4" t="s">
+      <c r="C43" s="3" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="B45" s="2"/>
+      <c r="B45" s="22"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="5" t="s">
+      <c r="A46" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B46" s="5" t="s">
+      <c r="B46" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" s="22" t="s">
         <v>81</v>
       </c>
-      <c r="B49" s="2"/>
+      <c r="B49" s="22"/>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="5" t="s">
+      <c r="A50" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B50" s="5" t="s">
+      <c r="B50" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="4" t="s">
+      <c r="A51" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B51" s="4" t="s">
+      <c r="B51" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" s="22" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="22"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="5" t="s">
+      <c r="A54" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="4" t="s">
+      <c r="A55" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B55" s="4" t="s">
+      <c r="B55" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="22"/>
+      <c r="D57" s="22"/>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="5" t="s">
+      <c r="A58" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B58" s="5" t="s">
+      <c r="B58" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D58" s="5" t="s">
+      <c r="D58" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="59" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A59" s="4" t="s">
+    <row r="59" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="B59" s="4" t="s">
+      <c r="B59" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C59" s="4" t="s">
+      <c r="C59" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D59" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="B61" s="7"/>
-      <c r="C61" s="7"/>
+      <c r="B61" s="21"/>
+      <c r="C61" s="21"/>
     </row>
     <row r="62" spans="1:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
+      <c r="A62" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B62" s="8" t="s">
+      <c r="B62" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="C62" s="6" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="63" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="4" t="s">
+      <c r="A63" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="B63" s="4" t="s">
+      <c r="B63" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="C63" s="4" t="s">
+      <c r="C63" s="3" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="21" t="s">
         <v>94</v>
       </c>
-      <c r="B65" s="7"/>
+      <c r="B65" s="21"/>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
+      <c r="A66" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A67" s="4" t="s">
+      <c r="A67" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="3" t="s">
         <v>97</v>
       </c>
     </row>
     <row r="69" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="21"/>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="8" t="s">
+      <c r="A70" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B70" s="8" t="s">
+      <c r="B70" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="4" t="s">
+      <c r="A71" s="3" t="s">
         <v>100</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="3" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="73" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="7"/>
+      <c r="B73" s="21"/>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+      <c r="A74" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B74" s="6" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="4" t="s">
+      <c r="A75" s="3" t="s">
         <v>103</v>
       </c>
-      <c r="B75" s="4" t="s">
+      <c r="B75" s="3" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="21" t="s">
         <v>105</v>
       </c>
-      <c r="B77" s="7"/>
-      <c r="C77" s="7"/>
+      <c r="B77" s="21"/>
+      <c r="C77" s="21"/>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
+      <c r="A78" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B78" s="8" t="s">
+      <c r="B78" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C78" s="8" t="s">
+      <c r="C78" s="6" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="4" t="s">
+      <c r="A79" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B79" s="4" t="s">
+      <c r="B79" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C79" s="4" t="s">
+      <c r="C79" s="3" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="B81" s="7"/>
-      <c r="C81" s="7"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
+      <c r="A82" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B82" s="8" t="s">
+      <c r="B82" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="C82" s="6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="83" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+      <c r="A83" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="B83" s="4" t="s">
+      <c r="B83" s="3" t="s">
         <v>107</v>
       </c>
-      <c r="C83" s="4" t="s">
+      <c r="C83" s="3" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="B85" s="7"/>
+      <c r="B85" s="21"/>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
+      <c r="A86" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B86" s="8" t="s">
+      <c r="B86" s="6" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+      <c r="A87" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B87" s="4" t="s">
+      <c r="B87" s="3" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="B89" s="7"/>
-      <c r="C89" s="7"/>
-      <c r="D89" s="7"/>
+      <c r="B89" s="21"/>
+      <c r="C89" s="21"/>
+      <c r="D89" s="21"/>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B90" s="8" t="s">
+      <c r="B90" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="C90" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="D90" s="8" t="s">
+      <c r="D90" s="6" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="4" t="s">
+      <c r="A91" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B91" s="4" t="s">
+      <c r="B91" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C91" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="4" t="s">
+      <c r="D91" s="3" t="s">
         <v>120</v>
       </c>
     </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B93" s="21"/>
+      <c r="C93" s="21"/>
+      <c r="D93" s="21"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="D94" s="6" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A95" s="3" t="s">
+        <v>290</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>292</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>291</v>
+      </c>
+      <c r="D95" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B97" s="21"/>
+      <c r="C97" s="21"/>
+      <c r="D97" s="21"/>
+      <c r="E97" s="21"/>
+      <c r="F97" s="21"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C98" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D98" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="E98" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A99" s="3" t="s">
+        <v>303</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>304</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E99" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="F99" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A85:B85"/>
-    <mergeCell ref="A65:B65"/>
-    <mergeCell ref="A73:B73"/>
-    <mergeCell ref="A89:D89"/>
-    <mergeCell ref="A81:C81"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A53:B53"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="A57:D57"/>
-    <mergeCell ref="A61:C61"/>
-    <mergeCell ref="A69:B69"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A29:H29"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A37:G37"/>
-    <mergeCell ref="A41:C41"/>
+  <mergeCells count="25">
+    <mergeCell ref="A93:D93"/>
+    <mergeCell ref="A97:F97"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A5:H5"/>
@@ -2037,6 +3724,22 @@
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A17:F17"/>
     <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A25:D25"/>
+    <mergeCell ref="A29:H29"/>
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="A37:G37"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="A57:D57"/>
+    <mergeCell ref="A61:C61"/>
+    <mergeCell ref="A69:B69"/>
+    <mergeCell ref="A85:B85"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A73:B73"/>
+    <mergeCell ref="A89:D89"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2044,307 +3747,2286 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D170"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView topLeftCell="A5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="18" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="37.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.5703125" customWidth="1"/>
+    <col min="4" max="4" width="37.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="C1" s="10"/>
-      <c r="D1" s="11"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="24"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+      <c r="A2" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="25" t="s">
         <v>130</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="26"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="26"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="36" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="8" t="s">
         <v>134</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="9" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="8" t="s">
         <v>135</v>
       </c>
-      <c r="D6" s="20" t="s">
+      <c r="D6" s="9" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="8" t="s">
         <v>136</v>
       </c>
-      <c r="D7" s="20" t="s">
+      <c r="D7" s="9" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D8" s="24" t="s">
+      <c r="D8" s="13" t="s">
         <v>127</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="10"/>
-      <c r="D10" s="11"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="24"/>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="12" t="s">
+      <c r="A11" s="33" t="s">
         <v>122</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B11" s="25" t="s">
         <v>141</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="14"/>
+      <c r="C11" s="25"/>
+      <c r="D11" s="26"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="12" t="s">
+      <c r="A12" s="33" t="s">
         <v>123</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B12" s="25" t="s">
         <v>142</v>
       </c>
-      <c r="C12" s="13"/>
-      <c r="D12" s="14"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="26"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="34" t="s">
         <v>124</v>
       </c>
-      <c r="B13" s="16" t="s">
+      <c r="B13" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="C13" s="16" t="s">
+      <c r="C13" s="35" t="s">
         <v>122</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="36" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="8" t="s">
         <v>132</v>
       </c>
-      <c r="C14" s="19" t="s">
+      <c r="C14" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="D14" s="20" t="s">
+      <c r="D14" s="9" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21" t="s">
+      <c r="A15" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="8" t="s">
         <v>146</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="D15" s="20" t="s">
+      <c r="D15" s="9" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="8" t="s">
         <v>145</v>
       </c>
-      <c r="C16" s="19" t="s">
+      <c r="C16" s="8" t="s">
         <v>149</v>
       </c>
-      <c r="D16" s="20" t="s">
+      <c r="D16" s="9" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+      <c r="A17" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="B17" s="27" t="s">
+      <c r="B17" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="20" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="28" t="s">
+      <c r="D17" s="17" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="B18" s="27" t="s">
+      <c r="B18" s="16" t="s">
         <v>144</v>
       </c>
-      <c r="C18" s="27" t="s">
+      <c r="C18" s="16" t="s">
         <v>151</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
+      <c r="A19" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="B19" s="27" t="s">
+      <c r="B19" s="16" t="s">
         <v>133</v>
       </c>
-      <c r="C19" s="27" t="s">
+      <c r="C19" s="16" t="s">
         <v>152</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
+      <c r="A20" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C20" s="27" t="s">
+      <c r="C20" s="16" t="s">
         <v>153</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="17" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="16" t="s">
         <v>128</v>
       </c>
-      <c r="C21" s="27" t="s">
+      <c r="C21" s="16" t="s">
         <v>154</v>
       </c>
-      <c r="D21" s="28" t="s">
+      <c r="D21" s="17" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="22" t="s">
+      <c r="A22" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="D22" s="24" t="s">
+      <c r="D22" s="13" t="s">
         <v>127</v>
       </c>
     </row>
+    <row r="23" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B24" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>161</v>
+      </c>
+      <c r="C25" s="25"/>
+      <c r="D25" s="26"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="26"/>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B27" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D27" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C31" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="B32" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>170</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="37" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="C37" s="23"/>
+      <c r="D37" s="24"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B38" s="25" t="s">
+        <v>181</v>
+      </c>
+      <c r="C38" s="25"/>
+      <c r="D38" s="26"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B39" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="C39" s="25"/>
+      <c r="D39" s="26"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B40" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C40" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D40" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="D42" s="9" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="37" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C43" s="8" t="s">
+        <v>184</v>
+      </c>
+      <c r="D43" s="9" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="B44" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C44" s="39" t="s">
+        <v>185</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="41"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>189</v>
+      </c>
+      <c r="C46" s="23"/>
+      <c r="D46" s="24"/>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B47" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="C47" s="25"/>
+      <c r="D47" s="26"/>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48" s="25"/>
+      <c r="D48" s="26"/>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C49" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>191</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>192</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>195</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B55" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="39" t="s">
+        <v>196</v>
+      </c>
+      <c r="D55" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" s="23"/>
+      <c r="D57" s="24"/>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>212</v>
+      </c>
+      <c r="C58" s="25"/>
+      <c r="D58" s="26"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B59" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59" s="25"/>
+      <c r="D59" s="26"/>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B60" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C60" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B61" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C61" s="8" t="s">
+        <v>202</v>
+      </c>
+      <c r="D61" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B62" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C62" s="39" t="s">
+        <v>201</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="C64" s="23"/>
+      <c r="D64" s="24"/>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B65" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" s="25"/>
+      <c r="D65" s="26"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66" s="25" t="s">
+        <v>211</v>
+      </c>
+      <c r="C66" s="25"/>
+      <c r="D66" s="26"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C67" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
+        <v>36</v>
+      </c>
+      <c r="B68" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C68" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A69" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B69" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A70" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="B70" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>205</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="38" t="s">
+        <v>38</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="41"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B73" s="23" t="s">
+        <v>214</v>
+      </c>
+      <c r="C73" s="23"/>
+      <c r="D73" s="24"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B74" s="25" t="s">
+        <v>215</v>
+      </c>
+      <c r="C74" s="25"/>
+      <c r="D74" s="26"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="C75" s="42"/>
+      <c r="D75" s="43"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B76" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C76" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D76" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="40" t="s">
+        <v>40</v>
+      </c>
+      <c r="B77" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A78" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="B78" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A79" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B79" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>218</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A80" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B80" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A81" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B81" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B82" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A83" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B83" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C83" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="C84" s="39" t="s">
+        <v>223</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B86" s="23" t="s">
+        <v>231</v>
+      </c>
+      <c r="C86" s="23"/>
+      <c r="D86" s="24"/>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B87" s="25" t="s">
+        <v>232</v>
+      </c>
+      <c r="C87" s="25"/>
+      <c r="D87" s="26"/>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B88" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88" s="25"/>
+      <c r="D88" s="26"/>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B89" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C89" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D89" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B90" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D90" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B91" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C91" s="39" t="s">
+        <v>234</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B93" s="23" t="s">
+        <v>235</v>
+      </c>
+      <c r="C93" s="23"/>
+      <c r="D93" s="24"/>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B94" s="25" t="s">
+        <v>236</v>
+      </c>
+      <c r="C94" s="25"/>
+      <c r="D94" s="26"/>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B95" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="C95" s="42"/>
+      <c r="D95" s="43"/>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C96" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D96" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A97" s="40" t="s">
+        <v>45</v>
+      </c>
+      <c r="B97" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="D97" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="40" t="s">
+        <v>46</v>
+      </c>
+      <c r="B98" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D98" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="B99" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="D99" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A100" s="40" t="s">
+        <v>48</v>
+      </c>
+      <c r="B100" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="D100" s="9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B101" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="D101" s="9" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A102" s="40" t="s">
+        <v>49</v>
+      </c>
+      <c r="B102" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="D102" s="9" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A103" s="40" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="D103" s="9" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B105" s="23" t="s">
+        <v>249</v>
+      </c>
+      <c r="C105" s="23"/>
+      <c r="D105" s="24"/>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B106" s="25" t="s">
+        <v>250</v>
+      </c>
+      <c r="C106" s="25"/>
+      <c r="D106" s="26"/>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="42" t="s">
+        <v>251</v>
+      </c>
+      <c r="C107" s="42"/>
+      <c r="D107" s="43"/>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B108" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C108" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D108" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A109" s="40" t="s">
+        <v>41</v>
+      </c>
+      <c r="B109" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>252</v>
+      </c>
+      <c r="D109" s="9" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A110" s="40" t="s">
+        <v>42</v>
+      </c>
+      <c r="B110" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>239</v>
+      </c>
+      <c r="D110" s="9" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="40" t="s">
+        <v>76</v>
+      </c>
+      <c r="B111" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="D111" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B113" s="23" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="23"/>
+      <c r="D113" s="24"/>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>257</v>
+      </c>
+      <c r="C114" s="25"/>
+      <c r="D114" s="26"/>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B115" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C115" s="25"/>
+      <c r="D115" s="26"/>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B116" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C116" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D116" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B117" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C117" s="8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D117" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B118" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C118" s="39" t="s">
+        <v>259</v>
+      </c>
+      <c r="D118" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B120" s="23" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" s="23"/>
+      <c r="D120" s="24"/>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B121" s="25" t="s">
+        <v>261</v>
+      </c>
+      <c r="C121" s="25"/>
+      <c r="D121" s="26"/>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B122" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C122" s="25"/>
+      <c r="D122" s="26"/>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B123" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C123" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D123" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B124" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>262</v>
+      </c>
+      <c r="D124" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A125" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B125" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C125" s="39" t="s">
+        <v>263</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B127" s="23" t="s">
+        <v>264</v>
+      </c>
+      <c r="C127" s="23"/>
+      <c r="D127" s="24"/>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B128" s="25" t="s">
+        <v>265</v>
+      </c>
+      <c r="C128" s="25"/>
+      <c r="D128" s="26"/>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B129" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C129" s="25"/>
+      <c r="D129" s="26"/>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B130" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C130" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D130" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="B131" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>266</v>
+      </c>
+      <c r="D131" s="9" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B132" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C132" s="39" t="s">
+        <v>267</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="B134" s="23" t="s">
+        <v>270</v>
+      </c>
+      <c r="C134" s="23"/>
+      <c r="D134" s="24"/>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="33" t="s">
+        <v>122</v>
+      </c>
+      <c r="B135" s="25" t="s">
+        <v>271</v>
+      </c>
+      <c r="C135" s="25"/>
+      <c r="D135" s="26"/>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="33" t="s">
+        <v>123</v>
+      </c>
+      <c r="B136" s="25" t="s">
+        <v>277</v>
+      </c>
+      <c r="C136" s="25"/>
+      <c r="D136" s="26"/>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="34" t="s">
+        <v>124</v>
+      </c>
+      <c r="B137" s="35" t="s">
+        <v>125</v>
+      </c>
+      <c r="C137" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="D137" s="36" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A138" s="37" t="s">
+        <v>23</v>
+      </c>
+      <c r="B138" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C138" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="D138" s="9" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A139" s="37" t="s">
+        <v>41</v>
+      </c>
+      <c r="B139" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D139" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A140" s="37" t="s">
+        <v>11</v>
+      </c>
+      <c r="B140" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>272</v>
+      </c>
+      <c r="D140" s="9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A141" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="B141" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C141" s="39" t="s">
+        <v>273</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>278</v>
+      </c>
+      <c r="C143" s="23"/>
+      <c r="D143" s="24"/>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B144" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C144" s="25"/>
+      <c r="D144" s="26"/>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B145" s="25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C145" s="25"/>
+      <c r="D145" s="26"/>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B146" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C146" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D146" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A147" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B147" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C147" s="3" t="s">
+        <v>280</v>
+      </c>
+      <c r="D147" s="9" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A148" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B148" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C148" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="D148" s="9" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="40" t="s">
+        <v>116</v>
+      </c>
+      <c r="B149" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C149" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="D149" s="9" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A150" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B150" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C150" s="39" t="s">
+        <v>283</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B152" s="23" t="s">
+        <v>308</v>
+      </c>
+      <c r="C152" s="23"/>
+      <c r="D152" s="24"/>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B153" s="25" t="s">
+        <v>309</v>
+      </c>
+      <c r="C153" s="25"/>
+      <c r="D153" s="26"/>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B154" s="25" t="s">
+        <v>310</v>
+      </c>
+      <c r="C154" s="25"/>
+      <c r="D154" s="26"/>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B155" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C155" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D155" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A156" s="40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B156" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="D156" s="9" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A157" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B157" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A158" s="40" t="s">
+        <v>38</v>
+      </c>
+      <c r="B158" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A159" s="40" t="s">
+        <v>289</v>
+      </c>
+      <c r="B159" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C159" s="39" t="s">
+        <v>296</v>
+      </c>
+      <c r="D159" s="13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="B161" s="23" t="s">
+        <v>307</v>
+      </c>
+      <c r="C161" s="23"/>
+      <c r="D161" s="24"/>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="B162" s="25" t="s">
+        <v>279</v>
+      </c>
+      <c r="C162" s="25"/>
+      <c r="D162" s="26"/>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="B163" s="25" t="s">
+        <v>312</v>
+      </c>
+      <c r="C163" s="25"/>
+      <c r="D163" s="26"/>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="B164" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="C164" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D164" s="31" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="44" t="s">
+        <v>23</v>
+      </c>
+      <c r="B165" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="D165" s="9" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A166" s="44" t="s">
+        <v>41</v>
+      </c>
+      <c r="B166" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C166" s="3" t="s">
+        <v>314</v>
+      </c>
+      <c r="D166" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="44" t="s">
+        <v>11</v>
+      </c>
+      <c r="B167" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="C167" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="D167" s="9" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A168" s="44" t="s">
+        <v>2</v>
+      </c>
+      <c r="B168" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="D168" s="9" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A169" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="B169" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C169" s="3" t="s">
+        <v>317</v>
+      </c>
+      <c r="D169" s="9" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A170" s="44" t="s">
+        <v>38</v>
+      </c>
+      <c r="B170" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="C170" s="39" t="s">
+        <v>318</v>
+      </c>
+      <c r="D170" s="13" t="s">
+        <v>323</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="54">
+    <mergeCell ref="B154:D154"/>
+    <mergeCell ref="B161:D161"/>
+    <mergeCell ref="B162:D162"/>
+    <mergeCell ref="B163:D163"/>
+    <mergeCell ref="B143:D143"/>
+    <mergeCell ref="B144:D144"/>
+    <mergeCell ref="B145:D145"/>
+    <mergeCell ref="B152:D152"/>
+    <mergeCell ref="B153:D153"/>
+    <mergeCell ref="B128:D128"/>
+    <mergeCell ref="B129:D129"/>
+    <mergeCell ref="B134:D134"/>
+    <mergeCell ref="B135:D135"/>
+    <mergeCell ref="B136:D136"/>
+    <mergeCell ref="B115:D115"/>
+    <mergeCell ref="B120:D120"/>
+    <mergeCell ref="B121:D121"/>
+    <mergeCell ref="B122:D122"/>
+    <mergeCell ref="B127:D127"/>
+    <mergeCell ref="B105:D105"/>
+    <mergeCell ref="B106:D106"/>
+    <mergeCell ref="B107:D107"/>
+    <mergeCell ref="B113:D113"/>
+    <mergeCell ref="B114:D114"/>
+    <mergeCell ref="B87:D87"/>
+    <mergeCell ref="B88:D88"/>
+    <mergeCell ref="B93:D93"/>
+    <mergeCell ref="B94:D94"/>
+    <mergeCell ref="B95:D95"/>
+    <mergeCell ref="B66:D66"/>
+    <mergeCell ref="B73:D73"/>
+    <mergeCell ref="B74:D74"/>
+    <mergeCell ref="B75:D75"/>
+    <mergeCell ref="B86:D86"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:D59"/>
+    <mergeCell ref="B64:D64"/>
+    <mergeCell ref="B65:D65"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B46:D46"/>
+    <mergeCell ref="B47:D47"/>
+    <mergeCell ref="B48:D48"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="B25:D25"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B37:D37"/>
     <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
     <mergeCell ref="B10:D10"/>
     <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B12:D12"/>
   </mergeCells>
   <conditionalFormatting sqref="D5 A6 C6">
+    <cfRule type="duplicateValues" dxfId="111" priority="124"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D14 A15 C15">
+    <cfRule type="duplicateValues" dxfId="110" priority="123"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D15">
+    <cfRule type="duplicateValues" dxfId="109" priority="122"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D28 A29 C29">
+    <cfRule type="duplicateValues" dxfId="108" priority="121"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D29">
+    <cfRule type="duplicateValues" dxfId="107" priority="120"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D41 A42 C42">
+    <cfRule type="duplicateValues" dxfId="106" priority="119"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D42">
+    <cfRule type="duplicateValues" dxfId="105" priority="118"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D50 A51 C51">
+    <cfRule type="duplicateValues" dxfId="104" priority="117"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="duplicateValues" dxfId="103" priority="116"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51 C52">
+    <cfRule type="duplicateValues" dxfId="102" priority="115"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="duplicateValues" dxfId="101" priority="114"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C52">
+    <cfRule type="duplicateValues" dxfId="100" priority="113"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="duplicateValues" dxfId="99" priority="112"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52 C53">
+    <cfRule type="duplicateValues" dxfId="98" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="duplicateValues" dxfId="97" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="duplicateValues" dxfId="96" priority="125"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A69 C69">
+    <cfRule type="duplicateValues" dxfId="95" priority="101"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69">
+    <cfRule type="duplicateValues" dxfId="94" priority="100"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D69 C70">
+    <cfRule type="duplicateValues" dxfId="93" priority="99"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C70">
+    <cfRule type="duplicateValues" dxfId="92" priority="97"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C71">
+    <cfRule type="duplicateValues" dxfId="91" priority="95"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="duplicateValues" dxfId="90" priority="93"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D68">
+    <cfRule type="duplicateValues" dxfId="89" priority="92"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="duplicateValues" dxfId="88" priority="91"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D70">
+    <cfRule type="duplicateValues" dxfId="87" priority="90"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="duplicateValues" dxfId="86" priority="89"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D71">
+    <cfRule type="duplicateValues" dxfId="85" priority="88"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77 A78 C78">
+    <cfRule type="duplicateValues" dxfId="84" priority="87"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="duplicateValues" dxfId="83" priority="86"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78 C79">
+    <cfRule type="duplicateValues" dxfId="82" priority="85"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C79">
+    <cfRule type="duplicateValues" dxfId="81" priority="83"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C80">
+    <cfRule type="duplicateValues" dxfId="80" priority="81"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C82">
+    <cfRule type="duplicateValues" dxfId="79" priority="79"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79">
+    <cfRule type="duplicateValues" dxfId="78" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79">
+    <cfRule type="duplicateValues" dxfId="77" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80">
+    <cfRule type="duplicateValues" dxfId="76" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D80">
+    <cfRule type="duplicateValues" dxfId="75" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D81">
+    <cfRule type="duplicateValues" dxfId="74" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D81">
+    <cfRule type="duplicateValues" dxfId="73" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="duplicateValues" dxfId="72" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D82">
+    <cfRule type="duplicateValues" dxfId="71" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="duplicateValues" dxfId="70" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D83">
+    <cfRule type="duplicateValues" dxfId="69" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="duplicateValues" dxfId="68" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D84">
+    <cfRule type="duplicateValues" dxfId="67" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D90">
+    <cfRule type="duplicateValues" dxfId="66" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D97 A98 C98">
+    <cfRule type="duplicateValues" dxfId="65" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D98">
+    <cfRule type="duplicateValues" dxfId="64" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="duplicateValues" dxfId="63" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C99">
+    <cfRule type="duplicateValues" dxfId="62" priority="61"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C100">
+    <cfRule type="duplicateValues" dxfId="61" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C102">
+    <cfRule type="duplicateValues" dxfId="60" priority="59"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D99">
+    <cfRule type="duplicateValues" dxfId="48" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D100">
+    <cfRule type="duplicateValues" dxfId="47" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D101">
+    <cfRule type="duplicateValues" dxfId="46" priority="43"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D102">
+    <cfRule type="duplicateValues" dxfId="45" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D103">
+    <cfRule type="duplicateValues" dxfId="44" priority="41"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D109 A110 C110">
+    <cfRule type="duplicateValues" dxfId="43" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="duplicateValues" dxfId="42" priority="39"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C111">
+    <cfRule type="duplicateValues" dxfId="41" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D110">
+    <cfRule type="duplicateValues" dxfId="38" priority="35"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D111">
+    <cfRule type="duplicateValues" dxfId="37" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D117">
+    <cfRule type="duplicateValues" dxfId="32" priority="29"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D124">
+    <cfRule type="duplicateValues" dxfId="31" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D131">
+    <cfRule type="duplicateValues" dxfId="30" priority="27"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D138">
+    <cfRule type="duplicateValues" dxfId="29" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D139">
+    <cfRule type="duplicateValues" dxfId="26" priority="23"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D140">
+    <cfRule type="duplicateValues" dxfId="25" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D141">
+    <cfRule type="duplicateValues" dxfId="24" priority="21"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D147">
+    <cfRule type="duplicateValues" dxfId="19" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D148">
+    <cfRule type="duplicateValues" dxfId="18" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="duplicateValues" dxfId="16" priority="17"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D149">
+    <cfRule type="duplicateValues" dxfId="15" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D150">
+    <cfRule type="duplicateValues" dxfId="14" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D156">
+    <cfRule type="duplicateValues" dxfId="13" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D157">
+    <cfRule type="duplicateValues" dxfId="12" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D158">
+    <cfRule type="duplicateValues" dxfId="11" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D158">
+    <cfRule type="duplicateValues" dxfId="10" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D159">
+    <cfRule type="duplicateValues" dxfId="9" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D165">
+    <cfRule type="duplicateValues" dxfId="8" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D166">
+    <cfRule type="duplicateValues" dxfId="7" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167">
+    <cfRule type="duplicateValues" dxfId="6" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D167">
+    <cfRule type="duplicateValues" dxfId="5" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="duplicateValues" dxfId="4" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D168">
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D169">
     <cfRule type="duplicateValues" dxfId="2" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D14 A15 C15">
+  <conditionalFormatting sqref="D169">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D15">
+  <conditionalFormatting sqref="D170">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
